--- a/Comunicaciones/Plan de comunicaciones.xlsx
+++ b/Comunicaciones/Plan de comunicaciones.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanPablo\Desktop\Pendiente Organizar\2015-2\Gerencia Informaticos\Proyecto de aula\repositorio\Velanex\Comunicaciones\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="156" windowWidth="20112" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -334,6 +339,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -382,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,7 +425,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,17 +637,17 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -653,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -667,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -681,7 +689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -695,7 +703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -709,7 +717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -723,7 +731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -737,7 +745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -751,7 +759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -767,7 +775,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -777,7 +785,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -789,7 +797,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
